--- a/src/com/technocredits/orangeHRMS/testdata/Login_TestData.xlsx
+++ b/src/com/technocredits/orangeHRMS/testdata/Login_TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2472" windowWidth="13380" windowHeight="8076"/>
+    <workbookView xWindow="0" yWindow="2784" windowWidth="13380" windowHeight="8076"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
